--- a/AcceptenceCriteria.xlsx
+++ b/AcceptenceCriteria.xlsx
@@ -20,9 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
-  <si>
-    <t>User story ID</t>
-  </si>
   <si>
     <r>
       <rPr>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>1) В блоке регистрации. Возле кнопки Register, добавить кнопку Sign In with Facebook 2) Пользователю открывается окно Фейсбука в котором он должен авторизироваться и подтвердить, что разрешает доступ к своим данным (имя, фамилия, Email, номер телефона) 3) Поля  First name, Last name, Email, Password, Phone number заполняются автоматически (после авторизации пользователем и разрешением на доступ) в соответствии с данными на аккаунте пользователя в Фейсбук.</t>
+  </si>
+  <si>
+    <t>User story / Acceptance criteria ID</t>
   </si>
 </sst>
 </file>
@@ -603,34 +603,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="37.109375" customWidth="1"/>
     <col min="3" max="3" width="27.5546875" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
     <col min="5" max="5" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="280.8" x14ac:dyDescent="0.3">
@@ -638,16 +636,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="109.2" x14ac:dyDescent="0.3">
@@ -655,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
@@ -672,16 +670,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="109.2" x14ac:dyDescent="0.3">
@@ -689,16 +687,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="140.4" x14ac:dyDescent="0.3">
@@ -706,16 +704,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
@@ -723,16 +721,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="171.6" x14ac:dyDescent="0.3">
@@ -740,16 +738,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
@@ -757,16 +755,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/AcceptenceCriteria.xlsx
+++ b/AcceptenceCriteria.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <r>
       <rPr>
@@ -105,12 +105,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">пользователь, который регистрируется </t>
-  </si>
-  <si>
-    <t>иметь возможность регистрации с помощью Facebook</t>
-  </si>
-  <si>
     <t xml:space="preserve">пользователь, который авторизируется </t>
   </si>
   <si>
@@ -138,21 +132,9 @@
     <t>пользователь, который выбрал товар</t>
   </si>
   <si>
-    <t>Иметь возможность добавить товар в Wishlist</t>
-  </si>
-  <si>
     <t>покупатель сможет выбрать и "отложить" товар который ему нужен или интересен в будущем, но на данный момент не готов купить. Таким образом покупатель не "потеряет" то что выбрал и сможет следить за наличием данного товара.</t>
   </si>
   <si>
-    <t>пользователь, который совершил покупку</t>
-  </si>
-  <si>
-    <t>иметь возможность отменить заказ, который уже оформлен и оплачен через "Историю заказов", до того как товар будет отправлен</t>
-  </si>
-  <si>
-    <t>покупатель, который "резко" передумал, сможет сразу отменить заказ и не приносить дополнительные убытки себе и магазину.</t>
-  </si>
-  <si>
     <t>пользователь, который добавил товар в Wishlist</t>
   </si>
   <si>
@@ -171,9 +153,6 @@
     <t>Acceptance criteria</t>
   </si>
   <si>
-    <t>мне не нужно будет заполнять поля First name, Last name, Email, Password, Phone number самостоятельно, а информация будет взята автоматически из моего профиля в Facebook.</t>
-  </si>
-  <si>
     <t>иметь возможность авторизации с помощью кнопки  "Войти", а не кнопки "ACCOUNT" и блока для логина.</t>
   </si>
   <si>
@@ -183,25 +162,34 @@
     <t xml:space="preserve">1) в каталоге товара по соответствующим категориям должны отображаться товары которых нет в наличии сейчас 2) справа вверху над изображением товара отображать статус, например ("Ожидается", "Распродан") 3) сначала в каталоге отображаются все товары для соответствующей категории которые ЕСТЬ в наличии </t>
   </si>
   <si>
-    <t>1) добавить в меню About блок Comments 2) в блоке Comments добавить возможность оставить отзыв 3) пользователь может поставить оценку от 0 до 5 и оствить отзыв через текстовое поле</t>
-  </si>
-  <si>
-    <t>1) Перейдя на страницу Account в боковом меню добавить пункт Wishlist 2) Отдельная страница для Wishlist'a 3) Добавить кнопку лайка в ввиде сердечка на странице товара и в каталоге товаров возле каждого из товаров</t>
-  </si>
-  <si>
-    <t>1) заказ можно отменить нажав на кнопку Cancel order перейдя по пути Account - Orders - нажать View или на номер заказа - нажать на кнопку Cancel order 2) добавить кнопку Cancel order на станицу заказа 3)предусмотреть то, что заказ можно отменить только напротяжении одного часа после его оформления.</t>
-  </si>
-  <si>
     <t>1) В Wishlist'e возле каждого из товаров добавить кнопку Add to cart 2) нажав на кнопку пользователю открывается модальное окно корзины в правом верхнем правом углу 3) Переход в Корзину по нажатию на кнопку не выполняется, товар удаляется с Избранного и перемещается в Корзину.</t>
   </si>
   <si>
     <t>1) функционал кнопки остается прежним 2) Поле для ввода текста обязательно к заполнению 3) минимальное количество символов для ввода в поле текста 20.</t>
   </si>
   <si>
-    <t>1) В блоке регистрации. Возле кнопки Register, добавить кнопку Sign In with Facebook 2) Пользователю открывается окно Фейсбука в котором он должен авторизироваться и подтвердить, что разрешает доступ к своим данным (имя, фамилия, Email, номер телефона) 3) Поля  First name, Last name, Email, Password, Phone number заполняются автоматически (после авторизации пользователем и разрешением на доступ) в соответствии с данными на аккаунте пользователя в Фейсбук.</t>
-  </si>
-  <si>
     <t>User story / Acceptance criteria ID</t>
+  </si>
+  <si>
+    <t>пользователь, который выбирает товар</t>
+  </si>
+  <si>
+    <t>иметь возможность увидеть оценку товара в каталоге (как на главной странице так и в катологе продуктов) рядом с названием товара</t>
+  </si>
+  <si>
+    <t>я смогу получить информацию о  качестве товара, по оценке других покупателей</t>
+  </si>
+  <si>
+    <t>1) Перейдя на страницу Account в боковом меню добавить пункт Wishlist 2) Отдельная страница для Wishlist'a 3) Добавить кнопку лайка в виде сердечка на странице товара и в каталоге товаров возле каждого из товаров</t>
+  </si>
+  <si>
+    <t>Иметь возможность добавить товар в Wishlist (как с главной страницы так и с каталога и страницы товара)</t>
+  </si>
+  <si>
+    <t>1) добавить кнопку оценки товара с возможностью выбрать от 0 до 5 на странице товара 2) оценку может поставить только зарегестрированый пользователь  3) после выбора оценки пользователь должен нажать кнопку "Оценить"</t>
+  </si>
+  <si>
+    <t>1) добавить в меню About блок Comments 2) в блоке Comments добавить возможность оставить отзыв 3) пользователь может поставить оценку от 0 до 5 и оставить отзыв через текстовое поле</t>
   </si>
 </sst>
 </file>
@@ -601,9 +589,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -614,9 +604,9 @@
     <col min="5" max="5" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -628,24 +618,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="280.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="109.2" x14ac:dyDescent="0.3">
@@ -653,16 +643,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
@@ -670,16 +660,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="109.2" x14ac:dyDescent="0.3">
@@ -687,16 +677,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="140.4" x14ac:dyDescent="0.3">
@@ -704,67 +694,50 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>30</v>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
